--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Conrad_Chamberlin/Joseph_Conrad_Chamberlin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Conrad_Chamberlin/Joseph_Conrad_Chamberlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Conrad Chamberlin est un arachnologiste américain, né le 23 décembre 1898 à Salt Lake City et mort le 17 juillet 1962 à Hillsboro. Il a étudié surtout des pseudoscorpions, onze espèces ont été appelées en son honneur.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamberlin est né à Salt Lake City, Utah, en 1898 de Ole Chamberlain et de Mary Ethel. Ses parents descendent des premières familles de pionniers mormons et il est leur premier enfant. Le père de Joseph est mort en 1911, en laissant la famille de quatre enfants près de la pauvreté. Après un an de collège, il quitte l'école en 1914 pour travailler pour soutenir la famille. En octobre de 1918, Joseph intègre l'Armée américaine, mais tombe malade avec la pandémie de grippe espagnole et n'a jamais servi dans la Première Guerre mondiale.
 Après son rétablissement, Chamberlin commence le collège à l'université d'Utah quand le Congrès a alloué le financement pour les vétérans. À l'origine un programme d'année, le Congrès l'a développé pour couvrir quatre ans d'école et Chamberlin est transféré à l'université Stanford après être recommandé par son oncle Ralph Vary Chamberlin de changer pour cette école. Il a été accepté comme un cas spécial et étudie l’entomologie dans le Département de Zoologie. Son tuteur à l'université Stanford était Gordon Floyd Ferris, dans le monde entier réputé pour être l'entomologiste à cette époque.
